--- a/results/11-2022/comparison-deflators-11-2022.xlsx
+++ b/results/11-2022/comparison-deflators-11-2022.xlsx
@@ -563,7 +563,7 @@
         <v>0.0178</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0103</v>
+        <v>0.0105</v>
       </c>
       <c r="I2" t="n">
         <v>0.0068</v>
@@ -675,7 +675,7 @@
         <v>-0.0364</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0354</v>
+        <v>-0.0353</v>
       </c>
       <c r="K4" t="n">
         <v>-0.0006</v>
@@ -693,10 +693,10 @@
         <v>-0.0179</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0688</v>
+        <v>-0.0687</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0299</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="5">
@@ -722,31 +722,31 @@
         <v>0.4364</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1775</v>
+        <v>-0.209</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2144</v>
+        <v>-0.2157</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3583</v>
+        <v>-0.3578</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0643</v>
+        <v>-0.0642</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1672</v>
+        <v>-0.167</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1254</v>
+        <v>-0.1253</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.317</v>
+        <v>-0.3165</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.4448</v>
+        <v>-0.4442</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0862</v>
+        <v>-0.0861</v>
       </c>
       <c r="Q5" t="n">
         <v>-0.0267</v>
@@ -778,31 +778,31 @@
         <v>-0.0484</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.056</v>
+        <v>-0.0559</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0825</v>
+        <v>-0.0824</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0887</v>
+        <v>-0.0885</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0732</v>
+        <v>-0.073</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0698</v>
+        <v>-0.0696</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0597</v>
+        <v>-0.0596</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0463</v>
+        <v>-0.0462</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0501</v>
+        <v>-0.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.031</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="7">
@@ -828,34 +828,34 @@
         <v>-0.0774</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0866</v>
+        <v>-0.0876</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0211</v>
+        <v>-0.0555</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.013</v>
+        <v>-0.0641</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1531</v>
+        <v>0.0852</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0628</v>
+        <v>-0.015</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0259</v>
+        <v>-0.0175</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0193</v>
+        <v>-0.0442</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0646</v>
+        <v>-0.071</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0279</v>
+        <v>0.0343</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.026</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="8">
@@ -878,37 +878,37 @@
         <v>-0.8936</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.0433</v>
+        <v>-1.0124</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6023</v>
+        <v>-0.5705</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4212</v>
+        <v>-0.5093</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2388</v>
+        <v>-0.2523</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1371</v>
+        <v>-0.0993</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0856</v>
+        <v>-0.0847</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0115</v>
+        <v>0.0123</v>
       </c>
       <c r="N8" t="n">
-        <v>0.311</v>
+        <v>0.3113</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3188</v>
+        <v>0.3053</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3419</v>
+        <v>0.3277</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3214</v>
+        <v>0.3556</v>
       </c>
     </row>
     <row r="9">
@@ -937,7 +937,7 @@
         <v>-0.1402</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.102</v>
+        <v>-0.1018</v>
       </c>
       <c r="J9" t="n">
         <v>-0.0592</v>
@@ -946,7 +946,7 @@
         <v>-0.0387</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0119</v>
+        <v>-0.0118</v>
       </c>
       <c r="M9" t="n">
         <v>-0.0177</v>
@@ -955,7 +955,7 @@
         <v>-0.0394</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0344</v>
+        <v>-0.0343</v>
       </c>
       <c r="P9" t="n">
         <v>-0.0284</v>
@@ -987,31 +987,31 @@
         <v>0.0854</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0494</v>
+        <v>0.0493</v>
       </c>
       <c r="I10" t="n">
+        <v>-0.0925</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.0805</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.0938</v>
+      </c>
+      <c r="L10" t="n">
         <v>-0.0926</v>
       </c>
-      <c r="J10" t="n">
-        <v>-0.0806</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.0939</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-0.0927</v>
-      </c>
       <c r="M10" t="n">
-        <v>-0.0817</v>
+        <v>-0.0816</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0523</v>
+        <v>-0.0522</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0498</v>
+        <v>-0.0497</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0417</v>
+        <v>-0.0416</v>
       </c>
       <c r="Q10" t="n">
         <v>-0.0161</v>
@@ -1040,7 +1040,7 @@
         <v>0.0147</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0119</v>
+        <v>0.0126</v>
       </c>
       <c r="I11" t="n">
         <v>0.0058</v>
@@ -1093,34 +1093,34 @@
         <v>-0.2423</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.8426</v>
+        <v>-0.8439</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5797</v>
+        <v>-0.5801</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1282</v>
+        <v>-0.1292</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0023</v>
+        <v>-0.0035</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0542</v>
+        <v>0.0541</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0456</v>
+        <v>-0.0455</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0606</v>
+        <v>-0.0605</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0583</v>
+        <v>-0.0582</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.0561</v>
+        <v>-0.056</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0355</v>
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="13">
@@ -1152,28 +1152,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0438</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0309</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0306</v>
+        <v>0.0436</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0151</v>
+        <v>0.0308</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0244</v>
+        <v>0.0399</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0214</v>
+        <v>0.0217</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0212</v>
+        <v>0.0215</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0177</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="14">
@@ -1202,31 +1202,31 @@
         <v>-0.0843</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0737</v>
+        <v>-0.0736</v>
       </c>
       <c r="J14" t="n">
         <v>-0.0584</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.5243</v>
+        <v>-0.5236</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.5727</v>
+        <v>-0.572</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.2224</v>
+        <v>-0.2221</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1761</v>
+        <v>-0.1759</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.3212</v>
+        <v>-0.3208</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.2404</v>
+        <v>-0.2401</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1032</v>
+        <v>-0.1031</v>
       </c>
     </row>
     <row r="15">
@@ -1255,16 +1255,16 @@
         <v>-0.9651</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3981</v>
+        <v>-0.3976</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3924</v>
+        <v>-0.3919</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2853</v>
+        <v>-0.2849</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1299</v>
+        <v>-0.1297</v>
       </c>
       <c r="M15" t="n">
         <v>-0.0073</v>
@@ -1302,37 +1302,37 @@
         <v>-3.8432</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.8615</v>
+        <v>-4.8306</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.8257</v>
+        <v>-2.7044</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.7191</v>
+        <v>-2.1235</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.6566</v>
+        <v>-1.8267</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.3675</v>
+        <v>-2.5229</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.8461</v>
+        <v>-1.057</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.4488</v>
+        <v>-0.4964</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1725</v>
+        <v>-0.1963</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3706</v>
+        <v>-0.399</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.3733</v>
+        <v>-0.3514</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.0383</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="17">
@@ -1358,34 +1358,34 @@
         <v>25248.5</v>
       </c>
       <c r="H17" t="n">
-        <v>25663.3</v>
+        <v>25699</v>
       </c>
       <c r="I17" t="n">
-        <v>26052.6724</v>
+        <v>26088.914</v>
       </c>
       <c r="J17" t="n">
-        <v>26377.7559</v>
+        <v>26414.4498</v>
       </c>
       <c r="K17" t="n">
-        <v>26689.6986</v>
+        <v>26726.8264</v>
       </c>
       <c r="L17" t="n">
-        <v>26975.3596</v>
+        <v>27012.8848</v>
       </c>
       <c r="M17" t="n">
-        <v>27223.1145</v>
+        <v>27260.9843</v>
       </c>
       <c r="N17" t="n">
-        <v>27468.2412</v>
+        <v>27506.452</v>
       </c>
       <c r="O17" t="n">
-        <v>27708.0105</v>
+        <v>27746.5549</v>
       </c>
       <c r="P17" t="n">
-        <v>27946.0614</v>
+        <v>27984.9369</v>
       </c>
       <c r="Q17" t="n">
-        <v>28195.2314</v>
+        <v>28234.4535</v>
       </c>
     </row>
     <row r="18">
@@ -1411,28 +1411,28 @@
         <v>0.7884</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2886</v>
+        <v>-0.3036</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2541</v>
+        <v>-0.2538</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.35</v>
+        <v>-0.3495</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0363</v>
+        <v>-0.0362</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1138</v>
+        <v>-0.1137</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.063</v>
+        <v>-0.0629</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.2597</v>
+        <v>-0.2593</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.377</v>
+        <v>-0.3764</v>
       </c>
       <c r="P18" t="n">
         <v>-0.0192</v>
@@ -1526,7 +1526,7 @@
         <v>-0.0212</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.0431</v>
+        <v>-1.0416</v>
       </c>
       <c r="L20" t="n">
         <v>-0.0002</v>
@@ -1573,16 +1573,16 @@
         <v>-0.0299</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0201</v>
+        <v>-0.02</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.5189</v>
+        <v>-0.5182</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2515</v>
+        <v>-0.2512</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0333</v>
+        <v>-0.0332</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1623,16 +1623,16 @@
         <v>-1.0621</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2664</v>
+        <v>0.4046</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4044</v>
+        <v>0.2096</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2829</v>
+        <v>0.2825</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0654</v>
+        <v>-0.0653</v>
       </c>
       <c r="L22" t="n">
         <v>-0.0095</v>
@@ -1641,16 +1641,16 @@
         <v>-0.0667</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1215</v>
+        <v>0.1213</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2425</v>
+        <v>0.2421</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.1077</v>
+        <v>-0.1075</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.1261</v>
+        <v>-0.126</v>
       </c>
     </row>
     <row r="23">
@@ -1729,34 +1729,34 @@
         <v>-0.126</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0957</v>
+        <v>-0.1294</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.051</v>
+        <v>-0.0611</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0381</v>
+        <v>0.0228</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0431</v>
+        <v>-0.0635</v>
       </c>
       <c r="L24" t="n">
-        <v>0.132</v>
+        <v>0.1324</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1348</v>
+        <v>0.114</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1137</v>
+        <v>0.0989</v>
       </c>
       <c r="O24" t="n">
-        <v>0.093</v>
+        <v>0.0842</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.0638</v>
+        <v>-0.0612</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.0511</v>
+        <v>-0.0491</v>
       </c>
     </row>
     <row r="25">
@@ -1782,31 +1782,31 @@
         <v>-0.0547</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0836</v>
+        <v>0.0247</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0364</v>
+        <v>-0.0349</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0564</v>
+        <v>-0.0263</v>
       </c>
       <c r="K25" t="n">
-        <v>0.042</v>
+        <v>0.0427</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0189</v>
+        <v>-0.0181</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0001</v>
+        <v>0.0008</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.0116</v>
+        <v>-0.0109</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.0269</v>
+        <v>-0.0262</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0453</v>
+        <v>-0.0178</v>
       </c>
       <c r="Q25" t="n">
         <v>0.0032</v>
@@ -1835,7 +1835,7 @@
         <v>0.0355</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0055</v>
+        <v>0.0071</v>
       </c>
       <c r="I26" t="n">
         <v>0.0094</v>
@@ -1888,34 +1888,34 @@
         <v>173.2</v>
       </c>
       <c r="H27" t="n">
-        <v>174.9</v>
+        <v>196.8</v>
       </c>
       <c r="I27" t="n">
-        <v>199.8518</v>
+        <v>177.8518</v>
       </c>
       <c r="J27" t="n">
-        <v>202.9509</v>
+        <v>180.6098</v>
       </c>
       <c r="K27" t="n">
-        <v>206.0981</v>
+        <v>183.4105</v>
       </c>
       <c r="L27" t="n">
-        <v>209.2941</v>
+        <v>186.2547</v>
       </c>
       <c r="M27" t="n">
-        <v>212.5396</v>
+        <v>189.1429</v>
       </c>
       <c r="N27" t="n">
-        <v>215.8355</v>
+        <v>192.076</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1825</v>
+        <v>195.0545</v>
       </c>
       <c r="P27" t="n">
-        <v>222.5814</v>
+        <v>198.0793</v>
       </c>
       <c r="Q27" t="n">
-        <v>226.033</v>
+        <v>201.1509</v>
       </c>
     </row>
     <row r="28">
@@ -1994,19 +1994,19 @@
         <v>-0.2215</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1068</v>
+        <v>-0.1071</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0526</v>
+        <v>-0.0525</v>
       </c>
       <c r="J29" t="n">
         <v>-0.0403</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0274</v>
+        <v>-0.0273</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0163</v>
+        <v>-0.0162</v>
       </c>
       <c r="M29" t="n">
         <v>-0.007</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -2206,31 +2206,31 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-0.0315</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0016</v>
+        <v>0.0003</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -2262,28 +2262,28 @@
         <v>0.0079</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0104</v>
+        <v>-0.0103</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0082</v>
+        <v>0.0084</v>
       </c>
       <c r="K34" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="P34" t="n">
         <v>0.0083</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.0084</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.0084</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.0082</v>
       </c>
       <c r="Q34" t="n">
         <v>0.0081</v>
@@ -2312,34 +2312,34 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0046</v>
+        <v>-0.039</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0093</v>
+        <v>-0.0604</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.014</v>
+        <v>-0.082</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0158</v>
+        <v>-0.0936</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0112</v>
+        <v>-0.0546</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0065</v>
+        <v>-0.0313</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.0018</v>
+        <v>-0.0082</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0001</v>
+        <v>0.0065</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="36">
@@ -2362,37 +2362,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.0308</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.0318</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0302</v>
+        <v>-0.0579</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0295</v>
+        <v>0.0161</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0143</v>
+        <v>0.052</v>
       </c>
       <c r="L36" t="n">
-        <v>0.014</v>
+        <v>0.0149</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0137</v>
+        <v>0.0145</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0134</v>
+        <v>0.0138</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0132</v>
+        <v>-0.0004</v>
       </c>
       <c r="P36" t="n">
-        <v>0.013</v>
+        <v>-0.0012</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.0011</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="37">
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2474,28 +2474,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2577,31 +2577,31 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0128</v>
+        <v>0.0116</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0138</v>
+        <v>0.0134</v>
       </c>
       <c r="J40" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0127</v>
+        <v>0.0115</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.001</v>
+        <v>-0.0009</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="Q40" t="n">
         <v>-0.0004</v>
@@ -2636,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-0.0438</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0309</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.0131</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.0157</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="42">
@@ -2686,31 +2686,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="43">
@@ -2739,16 +2739,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -2786,37 +2786,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.0308</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0262</v>
+        <v>0.1475</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2132</v>
+        <v>-0.1912</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0283</v>
+        <v>-0.1418</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0355</v>
+        <v>-0.1199</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0164</v>
+        <v>-0.1945</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0203</v>
+        <v>-0.0679</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.0128</v>
+        <v>-0.0365</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.0057</v>
+        <v>-0.034</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0015</v>
+        <v>0.0234</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0149</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="45">
@@ -2842,34 +2842,34 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.2417</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>36.6939</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.1278</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>37.5252</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>37.8698</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.2108</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>38.5444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>38.8755</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.2221</v>
       </c>
     </row>
     <row r="46">
@@ -2895,28 +2895,28 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-0.015</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.1382</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1943</v>
+        <v>-0.0005</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0003</v>
+        <v>-0.0007</v>
       </c>
       <c r="K50" t="n">
         <v>-0.0004</v>
@@ -3122,19 +3122,19 @@
         <v>-0.0005</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0006</v>
+        <v>-0.0005</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.0006</v>
+        <v>-0.0008</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.0006</v>
+        <v>-0.0009</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.0006</v>
+        <v>-0.0004</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.0005</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="51">
@@ -3166,7 +3166,7 @@
         <v>0.0054</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0052</v>
+        <v>0.0053</v>
       </c>
       <c r="K51" t="n">
         <v>0.0051</v>
@@ -3213,34 +3213,34 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>-0.0336</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.0351</v>
+        <v>-0.0452</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0363</v>
+        <v>-0.0517</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0376</v>
+        <v>-0.0581</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.0419</v>
+        <v>-0.0415</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0073</v>
+        <v>-0.0281</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.0048</v>
+        <v>-0.0196</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.0024</v>
+        <v>-0.0112</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0029</v>
+        <v>0.0055</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0026</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="53">
@@ -3266,31 +3266,31 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>-0.0589</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.0595</v>
+        <v>-0.058</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0587</v>
+        <v>-0.0287</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0292</v>
+        <v>-0.0285</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0289</v>
+        <v>-0.0281</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0286</v>
+        <v>-0.0279</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.0283</v>
+        <v>-0.0276</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.028</v>
+        <v>-0.0273</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.0278</v>
+        <v>-0.0002</v>
       </c>
       <c r="Q53" t="n">
         <v>-0.0002</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -3372,34 +3372,34 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="I55" t="n">
-        <v>22.2396</v>
+        <v>0.2396</v>
       </c>
       <c r="J55" t="n">
-        <v>22.5845</v>
+        <v>0.2433</v>
       </c>
       <c r="K55" t="n">
-        <v>22.9347</v>
+        <v>0.2471</v>
       </c>
       <c r="L55" t="n">
-        <v>23.2903</v>
+        <v>0.2509</v>
       </c>
       <c r="M55" t="n">
-        <v>23.6515</v>
+        <v>0.2548</v>
       </c>
       <c r="N55" t="n">
-        <v>24.0183</v>
+        <v>0.2588</v>
       </c>
       <c r="O55" t="n">
-        <v>24.3907</v>
+        <v>0.2628</v>
       </c>
       <c r="P55" t="n">
-        <v>24.769</v>
+        <v>0.2669</v>
       </c>
       <c r="Q55" t="n">
-        <v>25.1531</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="56">
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.0003</v>
+        <v>-0.0002</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.0003</v>
+        <v>-0.0002</v>
       </c>
       <c r="K57" t="n">
         <v>-0.0002</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="M57" t="n">
         <v>-0.0001</v>
@@ -3502,7 +3502,7 @@
         <v>-0.0001</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
